--- a/0.4 Clinical Data Processing/0.2 Data/clinical_data.xlsx
+++ b/0.4 Clinical Data Processing/0.2 Data/clinical_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24007"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucd-my.sharepoint.com/personal/ronan_hearne_ucdconnect_ie/Documents/0.1 Current Year/5th Year/Project/0.04 Radiomics Approach/0.4 Clinical Data Processing/0.2 Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="8_{F02C6F8B-8202-40FB-B885-DA173ED452FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{776B497A-9FB9-406F-9BF3-A00F154A636F}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{F02C6F8B-8202-40FB-B885-DA173ED452FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3DD6A44-054B-4D89-8972-1BC09BA6F654}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="1" xr2:uid="{559AA9E9-B822-4307-B45A-A5568A7A81A9}"/>
   </bookViews>
@@ -1659,16 +1659,30 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="13">
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -1747,470 +1761,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8296,7 +7846,7 @@
     <tableColumn id="11" xr3:uid="{871302BA-6AA6-416F-89ED-7DC28290C9C2}" uniqueName="11" name="PID" queryTableFieldId="13">
       <calculatedColumnFormula array="1">_FV(SUV_Data[[#This Row],[Patient Data]],"PID")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{089F55AF-82AC-4D7D-90B6-DD231AB8EA35}" uniqueName="8" name="T1 Date" queryTableFieldId="8" dataDxfId="47">
+    <tableColumn id="8" xr3:uid="{089F55AF-82AC-4D7D-90B6-DD231AB8EA35}" uniqueName="8" name="T1 Date" queryTableFieldId="8" dataDxfId="2">
       <calculatedColumnFormula array="1">_FV(SUV_Data[[#This Row],[Patient Data]],"T1 Date",TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{5C56DEB1-1172-47AB-9198-AAD42B659288}" uniqueName="2" name="T1 Toncil SUV" queryTableFieldId="2">
@@ -8308,7 +7858,7 @@
     <tableColumn id="4" xr3:uid="{E5980649-603B-499F-9BF5-31C0724BBF43}" uniqueName="4" name="T1 Normalised Toncil SUV" queryTableFieldId="4">
       <calculatedColumnFormula array="1">_FV(SUV_Data[[#This Row],[Patient Data]],"T1 Normalised Toncil SUV",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{27F08FBB-859F-45B9-8627-EA4CDED8DE5D}" uniqueName="9" name="T2 Date" queryTableFieldId="10" dataDxfId="46">
+    <tableColumn id="9" xr3:uid="{27F08FBB-859F-45B9-8627-EA4CDED8DE5D}" uniqueName="9" name="T2 Date" queryTableFieldId="10" dataDxfId="1">
       <calculatedColumnFormula array="1">_FV(SUV_Data[[#This Row],[Patient Data]],"T2 Date",TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3133714E-BA15-4180-A132-C85D78184C8F}" uniqueName="5" name="T2 Toncil SUV" queryTableFieldId="5">
@@ -8320,7 +7870,7 @@
     <tableColumn id="7" xr3:uid="{7C752E1E-D045-4522-9938-1E655360D11D}" uniqueName="7" name="T2 Normalised Toncil SUV" queryTableFieldId="7">
       <calculatedColumnFormula array="1">_FV(SUV_Data[[#This Row],[Patient Data]],"T2 Normalised Toncil SUV",TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{5C75E570-00FC-453F-988B-6D0375056E80}" uniqueName="13" name="% Change in Toncil SUV" queryTableFieldId="16" dataDxfId="45" dataCellStyle="Percent">
+    <tableColumn id="13" xr3:uid="{5C75E570-00FC-453F-988B-6D0375056E80}" uniqueName="13" name="% Change in Toncil SUV" queryTableFieldId="16" dataDxfId="0" dataCellStyle="Percent">
       <calculatedColumnFormula array="1">_FV(SUV_Data[[#This Row],[Patient Data]],"% Change in Toncil SUV",TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{4CBCCD58-D1FB-407A-BA0D-090EFCD08ACB}" uniqueName="10" name="Response" queryTableFieldId="12">
@@ -12006,18 +11556,18 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M74"/>
+      <selection activeCell="G2" sqref="G2:G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
@@ -15938,43 +15488,43 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E76:E1048576">
-    <cfRule type="cellIs" dxfId="18" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F74">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
       <formula>1.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K74">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="lessThan">
       <formula>-0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="between">
       <formula>-0.3</formula>
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L74">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="Response">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Response">
       <formula>NOT(ISERROR(SEARCH("Response",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Stable">
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="Stable">
       <formula>NOT(ISERROR(SEARCH("Stable",L2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Progression">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Progression">
       <formula>NOT(ISERROR(SEARCH("Progression",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M74">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Remission">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Remission">
       <formula>NOT(ISERROR(SEARCH("Remission",M2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Progression">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Progression">
       <formula>NOT(ISERROR(SEARCH("Progression",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
